--- a/BackTest/2019-10-26 BackTest XLM.xlsx
+++ b/BackTest/2019-10-26 BackTest XLM.xlsx
@@ -451,17 +451,13 @@
         <v>72.53999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K2" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>72.47999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>72.51999999999998</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K4" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>72.59999999999998</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>72.7</v>
-      </c>
-      <c r="K5" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>72.79999999999998</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>73</v>
-      </c>
-      <c r="K6" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>73.09999999999998</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>73.7</v>
-      </c>
-      <c r="K7" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>73.57999999999998</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -754,14 +702,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -795,14 +737,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -836,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -918,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -959,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1000,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1041,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1082,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1123,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1164,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1205,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1246,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1287,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1328,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1369,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1410,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1451,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1492,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1533,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1574,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1615,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1656,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1697,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1738,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1779,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1820,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1861,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1902,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1943,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1984,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2025,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2066,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2107,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2148,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2189,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2230,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2271,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2312,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2353,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2394,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2435,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2476,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2517,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2558,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2599,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2640,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2681,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2722,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2763,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2801,17 +2449,11 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2842,17 +2484,11 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2883,17 +2519,11 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2927,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2968,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3009,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3050,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3091,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3132,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3173,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3214,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3255,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3296,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3337,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3378,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3419,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3460,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3501,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3542,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3583,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3621,19 +3149,13 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>1.034944903581267</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3662,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3697,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3732,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3767,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3802,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3837,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3872,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3907,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3942,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3977,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -4012,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -4047,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -5129,13 +4651,17 @@
         <v>73.73999999999992</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="K122" t="n">
+        <v>73.8</v>
+      </c>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
@@ -5170,8 +4696,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5199,14 +4731,22 @@
         <v>73.63999999999993</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="K124" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -13672,7 +13212,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
@@ -13707,7 +13247,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
@@ -20952,7 +20492,7 @@
         <v>0</v>
       </c>
       <c r="I574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
@@ -27214,14 +26754,20 @@
         <v>72.76000000000003</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I753" t="n">
         <v>0</v>
       </c>
-      <c r="J753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>72.7</v>
+      </c>
       <c r="K753" t="inlineStr"/>
-      <c r="L753" t="inlineStr"/>
+      <c r="L753" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M753" t="n">
         <v>1</v>
       </c>
@@ -27249,14 +26795,20 @@
         <v>72.78000000000003</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I754" t="n">
         <v>0</v>
       </c>
-      <c r="J754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K754" t="inlineStr"/>
-      <c r="L754" t="inlineStr"/>
+      <c r="L754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M754" t="n">
         <v>1</v>
       </c>
@@ -27284,14 +26836,20 @@
         <v>72.74000000000004</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I755" t="n">
         <v>0</v>
       </c>
-      <c r="J755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>72.90000000000001</v>
+      </c>
       <c r="K755" t="inlineStr"/>
-      <c r="L755" t="inlineStr"/>
+      <c r="L755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M755" t="n">
         <v>1</v>
       </c>
@@ -27319,14 +26877,20 @@
         <v>72.72000000000003</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I756" t="n">
         <v>0</v>
       </c>
-      <c r="J756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>72.7</v>
+      </c>
       <c r="K756" t="inlineStr"/>
-      <c r="L756" t="inlineStr"/>
+      <c r="L756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M756" t="n">
         <v>1</v>
       </c>
@@ -27354,14 +26918,20 @@
         <v>72.74000000000004</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I757" t="n">
         <v>0</v>
       </c>
-      <c r="J757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>72.7</v>
+      </c>
       <c r="K757" t="inlineStr"/>
-      <c r="L757" t="inlineStr"/>
+      <c r="L757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M757" t="n">
         <v>1</v>
       </c>
@@ -27389,14 +26959,20 @@
         <v>72.76000000000003</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I758" t="n">
         <v>0</v>
       </c>
-      <c r="J758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>72.8</v>
+      </c>
       <c r="K758" t="inlineStr"/>
-      <c r="L758" t="inlineStr"/>
+      <c r="L758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M758" t="n">
         <v>1</v>
       </c>
@@ -27424,14 +27000,20 @@
         <v>72.70000000000005</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I759" t="n">
         <v>0</v>
       </c>
-      <c r="J759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>72.7</v>
+      </c>
       <c r="K759" t="inlineStr"/>
-      <c r="L759" t="inlineStr"/>
+      <c r="L759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M759" t="n">
         <v>1</v>
       </c>
@@ -27459,14 +27041,20 @@
         <v>72.68000000000005</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I760" t="n">
         <v>0</v>
       </c>
-      <c r="J760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K760" t="inlineStr"/>
-      <c r="L760" t="inlineStr"/>
+      <c r="L760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M760" t="n">
         <v>1</v>
       </c>
@@ -27494,14 +27082,20 @@
         <v>72.74000000000005</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I761" t="n">
         <v>0</v>
       </c>
-      <c r="J761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K761" t="inlineStr"/>
-      <c r="L761" t="inlineStr"/>
+      <c r="L761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M761" t="n">
         <v>1</v>
       </c>
@@ -27529,14 +27123,20 @@
         <v>72.88000000000005</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I762" t="n">
         <v>0</v>
       </c>
-      <c r="J762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>73</v>
+      </c>
       <c r="K762" t="inlineStr"/>
-      <c r="L762" t="inlineStr"/>
+      <c r="L762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M762" t="n">
         <v>1</v>
       </c>
@@ -27564,14 +27164,20 @@
         <v>72.96000000000005</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I763" t="n">
         <v>0</v>
       </c>
-      <c r="J763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>73.5</v>
+      </c>
       <c r="K763" t="inlineStr"/>
-      <c r="L763" t="inlineStr"/>
+      <c r="L763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M763" t="n">
         <v>1</v>
       </c>
@@ -27599,14 +27205,20 @@
         <v>73.06000000000003</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I764" t="n">
         <v>0</v>
       </c>
-      <c r="J764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>73.09999999999999</v>
+      </c>
       <c r="K764" t="inlineStr"/>
-      <c r="L764" t="inlineStr"/>
+      <c r="L764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M764" t="n">
         <v>1</v>
       </c>
@@ -27641,7 +27253,11 @@
       </c>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr"/>
-      <c r="L765" t="inlineStr"/>
+      <c r="L765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M765" t="n">
         <v>1</v>
       </c>
@@ -27676,7 +27292,11 @@
       </c>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr"/>
-      <c r="L766" t="inlineStr"/>
+      <c r="L766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M766" t="n">
         <v>1</v>
       </c>
@@ -27711,7 +27331,11 @@
       </c>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr"/>
-      <c r="L767" t="inlineStr"/>
+      <c r="L767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M767" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-26 BackTest XLM.xlsx
+++ b/BackTest/2019-10-26 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-111528.86433592</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-136243.68443592</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>72.3</v>
@@ -521,7 +521,7 @@
         <v>-136475.44823592</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>72.2</v>
@@ -562,7 +562,7 @@
         <v>-136475.44823592</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>72</v>
@@ -603,7 +603,7 @@
         <v>-136475.44823592</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>72</v>
@@ -640,7 +640,7 @@
         <v>-136475.44823592</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>72</v>
@@ -681,7 +681,7 @@
         <v>-136475.44823592</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>72</v>
@@ -722,7 +722,7 @@
         <v>-134395.00523592</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>72</v>
@@ -759,7 +759,7 @@
         <v>-107529.50663592</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>72.09999999999999</v>
@@ -800,7 +800,7 @@
         <v>-107529.50743592</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>72.2</v>
@@ -841,7 +841,7 @@
         <v>-197692.67873592</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>72.09999999999999</v>
@@ -882,7 +882,7 @@
         <v>-197692.67873592</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>71.8</v>
@@ -923,7 +923,7 @@
         <v>-195878.57433592</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>71.8</v>
@@ -964,7 +964,7 @@
         <v>-195878.57433592</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>71.90000000000001</v>
@@ -1005,7 +1005,7 @@
         <v>-118198.43243592</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>71.90000000000001</v>
@@ -1046,7 +1046,7 @@
         <v>-118198.43243592</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>72</v>
@@ -1087,7 +1087,7 @@
         <v>-130492.85913592</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>72</v>
@@ -1128,7 +1128,7 @@
         <v>-127292.85913592</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>71.90000000000001</v>
@@ -1169,7 +1169,7 @@
         <v>-127292.85913592</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>72</v>
@@ -1210,7 +1210,7 @@
         <v>-127292.85913592</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>72</v>
@@ -1251,7 +1251,7 @@
         <v>-143999.92973592</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>72</v>
@@ -1292,7 +1292,7 @@
         <v>-118933.43113592</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>71.90000000000001</v>
@@ -1333,7 +1333,7 @@
         <v>-115688.99773592</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>72</v>
@@ -1374,7 +1374,7 @@
         <v>-115688.99773592</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>72.09999999999999</v>
@@ -1415,7 +1415,7 @@
         <v>-115688.99773592</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>72.09999999999999</v>
@@ -1456,7 +1456,7 @@
         <v>-115770.99773592</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>72.09999999999999</v>
@@ -1497,7 +1497,7 @@
         <v>-115770.99773592</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>72</v>
@@ -1538,7 +1538,7 @@
         <v>-115770.99773592</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>72</v>
@@ -1579,7 +1579,7 @@
         <v>-109046.29943592</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>72</v>
@@ -1620,7 +1620,7 @@
         <v>-108867.91223592</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>72.09999999999999</v>
@@ -1661,7 +1661,7 @@
         <v>-108867.91223592</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>72.3</v>
@@ -1702,7 +1702,7 @@
         <v>-111069.09293592</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>72.3</v>
@@ -1743,7 +1743,7 @@
         <v>-111069.09293592</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>72.2</v>
@@ -1784,7 +1784,7 @@
         <v>-111069.09293592</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>72.2</v>
@@ -1825,7 +1825,7 @@
         <v>-111375.48673592</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>72.2</v>
@@ -1866,7 +1866,7 @@
         <v>-111375.48673592</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>72.09999999999999</v>
@@ -1907,7 +1907,7 @@
         <v>-114279.48673592</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>72.09999999999999</v>
@@ -1948,7 +1948,7 @@
         <v>-114279.48673592</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>72</v>
@@ -1989,7 +1989,7 @@
         <v>-113979.48673592</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>72</v>
@@ -2030,7 +2030,7 @@
         <v>-113979.48673592</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>72.2</v>
@@ -2071,7 +2071,7 @@
         <v>-113979.48673592</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>72.2</v>
@@ -2112,7 +2112,7 @@
         <v>-126560.60893592</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>72.2</v>
@@ -2153,7 +2153,7 @@
         <v>-126560.60893592</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>72</v>
@@ -2194,7 +2194,7 @@
         <v>-125772.60893592</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>72</v>
@@ -2235,7 +2235,7 @@
         <v>-125772.60893592</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>72.09999999999999</v>
@@ -2276,7 +2276,7 @@
         <v>-179006.99043592</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>72.09999999999999</v>
@@ -2317,7 +2317,7 @@
         <v>-179006.99043592</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>72</v>
@@ -2358,7 +2358,7 @@
         <v>-179006.99043592</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>72</v>
@@ -2399,7 +2399,7 @@
         <v>-179006.99043592</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>72</v>
@@ -2440,7 +2440,7 @@
         <v>-179006.99043592</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>72</v>
@@ -2481,7 +2481,7 @@
         <v>-179006.99043592</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>72</v>
@@ -2522,7 +2522,7 @@
         <v>-96610.16703592002</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>72</v>
@@ -2563,7 +2563,7 @@
         <v>-96610.16703592002</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>72.09999999999999</v>
@@ -2604,7 +2604,7 @@
         <v>-53229.65693592002</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>72.09999999999999</v>
@@ -2645,7 +2645,7 @@
         <v>-20490.68363592002</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>72.3</v>
@@ -2686,7 +2686,7 @@
         <v>-20339.67683592002</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>72.40000000000001</v>
@@ -2727,7 +2727,7 @@
         <v>-20339.67683592002</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>72.5</v>
@@ -2768,7 +2768,7 @@
         <v>-20339.67683592002</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>72.5</v>
@@ -2809,7 +2809,7 @@
         <v>29327.61566407998</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>72.5</v>
@@ -2850,7 +2850,7 @@
         <v>29327.61566407998</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>72.59999999999999</v>
@@ -2891,11 +2891,9 @@
         <v>-6671.310035920018</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>72.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
         <v>72</v>
       </c>
@@ -2932,11 +2930,9 @@
         <v>14877.29836407998</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>72.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
         <v>72</v>
       </c>
@@ -2973,11 +2969,9 @@
         <v>45690.69426407998</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>72.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
         <v>72</v>
       </c>
@@ -3014,11 +3008,9 @@
         <v>176991.34656408</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>72.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>72</v>
       </c>
@@ -3055,11 +3047,9 @@
         <v>302701.54476408</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>73.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>72</v>
       </c>
@@ -3096,11 +3086,9 @@
         <v>371126.43886408</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>74.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
         <v>72</v>
       </c>
@@ -3137,11 +3125,9 @@
         <v>529199.6665640799</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>72</v>
       </c>
@@ -3451,11 +3437,9 @@
         <v>438277.59726408</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>73.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
         <v>72</v>
       </c>
@@ -3492,11 +3476,9 @@
         <v>221876.21476408</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>73.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
         <v>72</v>
       </c>
@@ -3533,11 +3515,9 @@
         <v>232287.4696206</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>73.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
         <v>72</v>
       </c>
@@ -3574,11 +3554,9 @@
         <v>294100.3387205999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>73.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>72</v>
       </c>
@@ -3615,11 +3593,9 @@
         <v>277037.5977206</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>74.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>72</v>
       </c>
@@ -5645,7 +5621,7 @@
         <v>1015957.62537542</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
@@ -5653,11 +5629,11 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L132" t="n">
-        <v>1.036666666666667</v>
+        <v>1</v>
       </c>
       <c r="M132" t="inlineStr"/>
     </row>
@@ -5687,8 +5663,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>72</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5720,8 +5702,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>72</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5750,11 +5738,17 @@
         <v>1092924.05227542</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>72</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5783,11 +5777,17 @@
         <v>1972089.72047542</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>72</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5816,11 +5816,17 @@
         <v>1972089.72047542</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>72</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5849,11 +5855,17 @@
         <v>1972089.72047542</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>72</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5882,11 +5894,17 @@
         <v>2119409.73907542</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>72</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5915,11 +5933,17 @@
         <v>2164647.60137542</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>72</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5948,11 +5972,17 @@
         <v>2152386.98967542</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>72</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5981,11 +6011,17 @@
         <v>2152386.98967542</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>72</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6014,11 +6050,17 @@
         <v>2171686.98967542</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>72</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6047,11 +6089,17 @@
         <v>2362526.68767542</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>72</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6080,11 +6128,17 @@
         <v>2358837.30867542</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>72</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6116,8 +6170,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>72</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6149,8 +6209,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>72</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6179,11 +6245,17 @@
         <v>2635399.84147542</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>72</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6212,11 +6284,17 @@
         <v>2656446.95937542</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>72</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6245,11 +6323,17 @@
         <v>2614343.52747542</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>72</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6278,11 +6362,17 @@
         <v>2362343.81477542</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>72</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6311,11 +6401,17 @@
         <v>2298685.58687542</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>72</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6344,11 +6440,17 @@
         <v>2291965.15677542</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>72</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6380,8 +6482,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>72</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6413,8 +6521,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>72</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6446,8 +6560,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>72</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6476,13 +6596,19 @@
         <v>-1452775.74522458</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>72</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L157" t="n">
-        <v>1</v>
+        <v>1.024166666666667</v>
       </c>
       <c r="M157" t="inlineStr"/>
     </row>
@@ -6509,7 +6635,7 @@
         <v>-1535734.89042458</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6542,7 +6668,7 @@
         <v>-1728482.22119717</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6575,7 +6701,7 @@
         <v>-1709638.05689717</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6608,7 +6734,7 @@
         <v>-1727947.71169717</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6641,7 +6767,7 @@
         <v>-1724725.486697169</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6674,7 +6800,7 @@
         <v>-1724725.486697169</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6707,7 +6833,7 @@
         <v>-1693401.38879717</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -15320,7 +15446,7 @@
         <v>-1136605.054667679</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15353,7 +15479,7 @@
         <v>-1197350.788567679</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15386,7 +15512,7 @@
         <v>-1197350.788567679</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15848,7 +15974,7 @@
         <v>-1115296.861367679</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15881,7 +16007,7 @@
         <v>-1109322.323467679</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15914,7 +16040,7 @@
         <v>-1118234.223467679</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15947,7 +16073,7 @@
         <v>-1117247.381367679</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15980,7 +16106,7 @@
         <v>-1142892.975067679</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16013,7 +16139,7 @@
         <v>-1193290.938167679</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16046,7 +16172,7 @@
         <v>-1175049.963567679</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16079,7 +16205,7 @@
         <v>-1229467.197167679</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16112,7 +16238,7 @@
         <v>-1229467.197167679</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16145,7 +16271,7 @@
         <v>-1147078.455667679</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16178,7 +16304,7 @@
         <v>-1111971.903067679</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16211,7 +16337,7 @@
         <v>-940395.2804676787</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16244,7 +16370,7 @@
         <v>-867995.1940676786</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16277,7 +16403,7 @@
         <v>-867995.1940676786</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16343,7 +16469,7 @@
         <v>-936945.8591676786</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16376,7 +16502,7 @@
         <v>-936945.8591676786</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16409,7 +16535,7 @@
         <v>-908478.4517676786</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16442,7 +16568,7 @@
         <v>-788118.1630676786</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16475,7 +16601,7 @@
         <v>-833784.2729676786</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16508,7 +16634,7 @@
         <v>-875138.1189676786</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16541,7 +16667,7 @@
         <v>-867722.1909676787</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16574,7 +16700,7 @@
         <v>-886134.1808676787</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16607,7 +16733,7 @@
         <v>-882144.0780676787</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16640,7 +16766,7 @@
         <v>-880844.0780676787</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16673,7 +16799,7 @@
         <v>-835107.1564676787</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16706,7 +16832,7 @@
         <v>-772797.5995676788</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16739,7 +16865,7 @@
         <v>-772797.5995676788</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16772,7 +16898,7 @@
         <v>-796095.5075676788</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16805,7 +16931,7 @@
         <v>-788845.5075676788</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16838,7 +16964,7 @@
         <v>-769320.7680676788</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16871,7 +16997,7 @@
         <v>-866084.8896676787</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16904,7 +17030,7 @@
         <v>-866084.8896676787</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16937,7 +17063,7 @@
         <v>-853751.8608676788</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16970,7 +17096,7 @@
         <v>-906779.8598676787</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17003,7 +17129,7 @@
         <v>-906779.8598676787</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17036,7 +17162,7 @@
         <v>-906779.8598676787</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17069,7 +17195,7 @@
         <v>-906779.8598676787</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17102,7 +17228,7 @@
         <v>-939007.8801676787</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17135,7 +17261,7 @@
         <v>-939007.8801676787</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17168,7 +17294,7 @@
         <v>-935460.0021676787</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17201,7 +17327,7 @@
         <v>-935460.0021676787</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17234,7 +17360,7 @@
         <v>-994966.6010389187</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17267,7 +17393,7 @@
         <v>-994966.6010389187</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17300,7 +17426,7 @@
         <v>-852021.8621389187</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17333,7 +17459,7 @@
         <v>-852021.8621389187</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17366,7 +17492,7 @@
         <v>-903590.1167389187</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17399,7 +17525,7 @@
         <v>-1059626.147438919</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17432,7 +17558,7 @@
         <v>-1059626.147438919</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17465,7 +17591,7 @@
         <v>-1013385.945138919</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17498,7 +17624,7 @@
         <v>-1013385.945138919</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17531,7 +17657,7 @@
         <v>-857455.4935389187</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17564,7 +17690,7 @@
         <v>-583485.0187389187</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17597,7 +17723,7 @@
         <v>-583485.0187389187</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17630,7 +17756,7 @@
         <v>-597755.7493389187</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17663,7 +17789,7 @@
         <v>-653742.4484389187</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17696,7 +17822,7 @@
         <v>-686853.1723389187</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17729,7 +17855,7 @@
         <v>-686813.5538389187</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17762,7 +17888,7 @@
         <v>-678131.5188389187</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17795,7 +17921,7 @@
         <v>-674227.7478389187</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17828,7 +17954,7 @@
         <v>-674227.7478389187</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17861,7 +17987,7 @@
         <v>-752874.0338389187</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17894,7 +18020,7 @@
         <v>-733495.4658389187</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17927,7 +18053,7 @@
         <v>-733495.4658389187</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17960,7 +18086,7 @@
         <v>-733495.4658389187</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17993,7 +18119,7 @@
         <v>-709129.7756389187</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18026,7 +18152,7 @@
         <v>-755737.3460389187</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18059,7 +18185,7 @@
         <v>-755737.3460389187</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18092,7 +18218,7 @@
         <v>-763725.3160389187</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18125,7 +18251,7 @@
         <v>-740910.2191389187</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18158,7 +18284,7 @@
         <v>-754480.7323389187</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18191,7 +18317,7 @@
         <v>-754480.7323389187</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18224,7 +18350,7 @@
         <v>-956066.1065282488</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18257,7 +18383,7 @@
         <v>-1068722.392328249</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18290,7 +18416,7 @@
         <v>-940546.4349282489</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18323,7 +18449,7 @@
         <v>-963498.1532282488</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18356,7 +18482,7 @@
         <v>-1040788.882928249</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18389,7 +18515,7 @@
         <v>-1030904.382228249</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18422,7 +18548,7 @@
         <v>-1030185.461828249</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18455,7 +18581,7 @@
         <v>-1014848.843428249</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18488,7 +18614,7 @@
         <v>-1008705.002828249</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18521,7 +18647,7 @@
         <v>-1008705.002828249</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18554,7 +18680,7 @@
         <v>-1021135.509828249</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18587,7 +18713,7 @@
         <v>-1021135.509828249</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18620,7 +18746,7 @@
         <v>-1021135.509828249</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18653,7 +18779,7 @@
         <v>-1006332.059428249</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18686,7 +18812,7 @@
         <v>-978200.2337282489</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18719,7 +18845,7 @@
         <v>-978498.9368282489</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18752,7 +18878,7 @@
         <v>-1144706.067128249</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18785,7 +18911,7 @@
         <v>-1142664.161628249</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18818,7 +18944,7 @@
         <v>-1244623.892928249</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18851,7 +18977,7 @@
         <v>-1257317.423828249</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18884,7 +19010,7 @@
         <v>-1257317.423828249</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18917,7 +19043,7 @@
         <v>-1256703.505828249</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18950,7 +19076,7 @@
         <v>-1256703.505828249</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18983,7 +19109,7 @@
         <v>-1252952.137128249</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19016,7 +19142,7 @@
         <v>-1252952.137128249</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19049,7 +19175,7 @@
         <v>-1286110.631128249</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19082,7 +19208,7 @@
         <v>-1246814.719628249</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19115,7 +19241,7 @@
         <v>-1280114.601628249</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19148,7 +19274,7 @@
         <v>-1270997.159628249</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19181,7 +19307,7 @@
         <v>-1278836.959628249</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19214,7 +19340,7 @@
         <v>-1336372.801028249</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19247,7 +19373,7 @@
         <v>-1138298.466228249</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19280,7 +19406,7 @@
         <v>-1274929.929728249</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19313,7 +19439,7 @@
         <v>-1274929.929728249</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19346,7 +19472,7 @@
         <v>-1272896.184728249</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19379,7 +19505,7 @@
         <v>-1272896.184728249</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19412,7 +19538,7 @@
         <v>-1275609.559428249</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19445,7 +19571,7 @@
         <v>-1257678.217428249</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19478,7 +19604,7 @@
         <v>-1260421.217428249</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19511,7 +19637,7 @@
         <v>-1260421.217428249</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19544,7 +19670,7 @@
         <v>-1260421.217428249</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19577,7 +19703,7 @@
         <v>-1310254.846128249</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19610,7 +19736,7 @@
         <v>-1323178.709928249</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19643,7 +19769,7 @@
         <v>-1406412.305528249</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19676,7 +19802,7 @@
         <v>-1305740.624328249</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19709,7 +19835,7 @@
         <v>-1305740.624328249</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19742,7 +19868,7 @@
         <v>-1327402.780128249</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19775,7 +19901,7 @@
         <v>-1327402.780128249</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19808,7 +19934,7 @@
         <v>-1334514.783728249</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19841,7 +19967,7 @@
         <v>-1334379.594128249</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19874,7 +20000,7 @@
         <v>-1334379.594128249</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19907,7 +20033,7 @@
         <v>-1330379.594128249</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19940,7 +20066,7 @@
         <v>-1345285.449628249</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19973,7 +20099,7 @@
         <v>-1358604.830428249</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20039,7 +20165,7 @@
         <v>-1357604.830428249</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20171,7 +20297,7 @@
         <v>-1420230.776824219</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20204,7 +20330,7 @@
         <v>-1420240.776824219</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20336,7 +20462,7 @@
         <v>-1472618.453102589</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20369,7 +20495,7 @@
         <v>-1420789.646702589</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20402,7 +20528,7 @@
         <v>-1511322.159602589</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20435,7 +20561,7 @@
         <v>-1617088.129602588</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20468,7 +20594,7 @@
         <v>-1699633.484602588</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20666,7 +20792,7 @@
         <v>-1631789.036002588</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20699,7 +20825,7 @@
         <v>-1678008.940402588</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20732,7 +20858,7 @@
         <v>-1678008.940402588</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -20765,7 +20891,7 @@
         <v>-1678008.940402588</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20798,7 +20924,7 @@
         <v>-1709858.046402588</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20864,7 +20990,7 @@
         <v>-1699768.123902588</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -20897,7 +21023,7 @@
         <v>-1697105.424902588</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20930,7 +21056,7 @@
         <v>-1697105.424902588</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20963,7 +21089,7 @@
         <v>-1697105.424902588</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -22151,7 +22277,7 @@
         <v>-1769342.594994029</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22184,7 +22310,7 @@
         <v>-1752457.077294029</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22217,7 +22343,7 @@
         <v>-1758417.385694029</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22448,7 +22574,7 @@
         <v>-1765051.205694029</v>
       </c>
       <c r="H641" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -28894,6 +29020,6 @@
       <c r="M836" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest XLM.xlsx
+++ b/BackTest/2019-10-26 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,14 +484,10 @@
         <v>-136243.68443592</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>72.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-136475.44823592</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-136475.44823592</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>72</v>
-      </c>
-      <c r="J5" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>-136475.44823592</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>72</v>
-      </c>
-      <c r="J6" t="n">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>-136475.44823592</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>72</v>
-      </c>
-      <c r="J7" t="n">
-        <v>72</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,11 @@
         <v>-136475.44823592</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>72</v>
-      </c>
-      <c r="J8" t="n">
-        <v>72</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -759,11 +719,9 @@
         <v>-107529.50663592</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>72.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>72</v>
       </c>
@@ -800,11 +758,9 @@
         <v>-107529.50743592</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>72.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>72</v>
       </c>
@@ -841,19 +797,11 @@
         <v>-197692.67873592</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="J12" t="n">
-        <v>72</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -888,13 +836,9 @@
         <v>71.8</v>
       </c>
       <c r="J13" t="n">
-        <v>72</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>71.8</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -923,17 +867,15 @@
         <v>-195878.57433592</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
         <v>71.8</v>
       </c>
-      <c r="J14" t="n">
-        <v>72</v>
-      </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -964,17 +906,15 @@
         <v>-195878.57433592</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>71.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>72</v>
+        <v>71.8</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1005,19 +945,11 @@
         <v>-118198.43243592</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="J16" t="n">
-        <v>72</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1046,19 +978,11 @@
         <v>-118198.43243592</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>72</v>
-      </c>
-      <c r="J17" t="n">
-        <v>72</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1087,19 +1011,11 @@
         <v>-130492.85913592</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>72</v>
-      </c>
-      <c r="J18" t="n">
-        <v>72</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1128,19 +1044,11 @@
         <v>-127292.85913592</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="J19" t="n">
-        <v>72</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1169,19 +1077,11 @@
         <v>-127292.85913592</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>72</v>
-      </c>
-      <c r="J20" t="n">
-        <v>72</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1218,11 +1118,7 @@
       <c r="J21" t="n">
         <v>72</v>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1251,17 +1147,15 @@
         <v>-143999.92973592</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>72</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1292,17 +1186,15 @@
         <v>-118933.43113592</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>71.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>72</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1333,19 +1225,11 @@
         <v>-115688.99773592</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>72</v>
-      </c>
-      <c r="J24" t="n">
-        <v>72</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1374,19 +1258,11 @@
         <v>-115688.99773592</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="J25" t="n">
-        <v>72</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1415,19 +1291,11 @@
         <v>-115688.99773592</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="J26" t="n">
-        <v>72</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1456,19 +1324,11 @@
         <v>-115770.99773592</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="J27" t="n">
-        <v>72</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1505,11 +1365,7 @@
       <c r="J28" t="n">
         <v>72</v>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1548,7 +1404,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -1579,17 +1435,15 @@
         <v>-109046.29943592</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>72</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -1620,11 +1474,9 @@
         <v>-108867.91223592</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>72.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>72</v>
       </c>
@@ -1661,11 +1513,9 @@
         <v>-108867.91223592</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>72.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>72</v>
       </c>
@@ -1702,11 +1552,9 @@
         <v>-111069.09293592</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>72.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>72</v>
       </c>
@@ -1743,11 +1591,9 @@
         <v>-111069.09293592</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>72.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>72</v>
       </c>
@@ -1784,11 +1630,9 @@
         <v>-111069.09293592</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>72.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>72</v>
       </c>
@@ -1825,11 +1669,9 @@
         <v>-111375.48673592</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>72.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>72</v>
       </c>
@@ -1866,11 +1708,9 @@
         <v>-111375.48673592</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>72.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>72</v>
       </c>
@@ -1907,11 +1747,9 @@
         <v>-114279.48673592</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>72.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>72</v>
       </c>
@@ -1948,11 +1786,9 @@
         <v>-114279.48673592</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>72</v>
       </c>
@@ -1989,11 +1825,9 @@
         <v>-113979.48673592</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>72</v>
       </c>
@@ -2030,11 +1864,9 @@
         <v>-113979.48673592</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>72.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>72</v>
       </c>
@@ -2071,11 +1903,9 @@
         <v>-113979.48673592</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>72.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>72</v>
       </c>
@@ -2112,11 +1942,9 @@
         <v>-126560.60893592</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>72.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>72</v>
       </c>
@@ -2153,11 +1981,9 @@
         <v>-126560.60893592</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>72</v>
       </c>
@@ -2194,11 +2020,9 @@
         <v>-125772.60893592</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>72</v>
       </c>
@@ -2235,11 +2059,9 @@
         <v>-125772.60893592</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>72.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>72</v>
       </c>
@@ -2276,11 +2098,9 @@
         <v>-179006.99043592</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>72.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>72</v>
       </c>
@@ -2317,11 +2137,9 @@
         <v>-179006.99043592</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>72</v>
       </c>
@@ -2358,11 +2176,9 @@
         <v>-179006.99043592</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>72</v>
       </c>
@@ -2399,11 +2215,9 @@
         <v>-179006.99043592</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>72</v>
       </c>
@@ -2440,11 +2254,9 @@
         <v>-179006.99043592</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>72</v>
       </c>
@@ -2481,11 +2293,9 @@
         <v>-179006.99043592</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>72</v>
       </c>
@@ -2522,11 +2332,9 @@
         <v>-96610.16703592002</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>72</v>
       </c>
@@ -2563,11 +2371,9 @@
         <v>-96610.16703592002</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>72.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>72</v>
       </c>
@@ -2604,11 +2410,9 @@
         <v>-53229.65693592002</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>72.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
         <v>72</v>
       </c>
@@ -2645,11 +2449,9 @@
         <v>-20490.68363592002</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>72.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
         <v>72</v>
       </c>
@@ -2686,11 +2488,9 @@
         <v>-20339.67683592002</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>72.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>72</v>
       </c>
@@ -2727,11 +2527,9 @@
         <v>-20339.67683592002</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>72.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>72</v>
       </c>
@@ -2768,11 +2566,9 @@
         <v>-20339.67683592002</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>72.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>72</v>
       </c>
@@ -2809,11 +2605,9 @@
         <v>29327.61566407998</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>72.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
         <v>72</v>
       </c>
@@ -2850,11 +2644,9 @@
         <v>29327.61566407998</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>72.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
         <v>72</v>
       </c>
@@ -3125,7 +2917,7 @@
         <v>529199.6665640799</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
@@ -3133,11 +2925,11 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>1.0325</v>
       </c>
       <c r="M68" t="inlineStr"/>
     </row>
@@ -3164,17 +2956,11 @@
         <v>620931.25836408</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>72</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3203,17 +2989,11 @@
         <v>498866.38666408</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>72</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3242,17 +3022,11 @@
         <v>342365.09346408</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>72</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3281,17 +3055,11 @@
         <v>407927.80846408</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>72</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3323,14 +3091,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>72</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3362,14 +3124,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>72</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3401,14 +3157,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>72</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3440,14 +3190,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>72</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3479,14 +3223,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>72</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3518,14 +3256,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>72</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3557,14 +3289,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>72</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3596,14 +3322,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>72</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3635,14 +3355,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>72</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3674,14 +3388,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>72</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3713,14 +3421,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>72</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3752,14 +3454,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>72</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3791,14 +3487,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>72</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3830,14 +3520,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>72</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3869,14 +3553,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>72</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3908,14 +3586,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>72</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3944,17 +3616,11 @@
         <v>458691.77234801</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>72</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3983,17 +3649,11 @@
         <v>465458.31447542</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>72</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -4022,17 +3682,11 @@
         <v>582962.81937542</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>72</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4061,17 +3715,11 @@
         <v>693229.65477542</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>72</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4100,17 +3748,11 @@
         <v>755096.2780754199</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>72</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4139,17 +3781,11 @@
         <v>755096.2780754199</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>72</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4178,17 +3814,11 @@
         <v>755096.2780754199</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>72</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4217,17 +3847,11 @@
         <v>565297.1494754199</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>72</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4256,17 +3880,11 @@
         <v>493065.8950754199</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>72</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4295,17 +3913,11 @@
         <v>500158.8859754199</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>72</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4334,17 +3946,11 @@
         <v>494882.9973754199</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>72</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4373,17 +3979,11 @@
         <v>494882.9973754199</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>72</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4412,17 +4012,11 @@
         <v>494682.9973754199</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>72</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4451,17 +4045,11 @@
         <v>494682.9973754199</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>72</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4490,17 +4078,11 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>72</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4529,17 +4111,11 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>72</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4568,17 +4144,11 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>72</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4607,17 +4177,11 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>72</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4646,17 +4210,11 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>72</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4685,17 +4243,11 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>72</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4724,17 +4276,11 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>72</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4763,17 +4309,11 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>72</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4802,17 +4342,11 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>72</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4844,14 +4378,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>72</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4880,17 +4408,11 @@
         <v>620815.4385754198</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>72</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4922,14 +4444,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>72</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4961,14 +4477,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>72</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -5000,14 +4510,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>72</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5039,14 +4543,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>72</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5078,14 +4576,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>72</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5117,14 +4609,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>72</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5156,14 +4642,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>72</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5195,14 +4675,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>72</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5234,14 +4708,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>72</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5273,14 +4741,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>72</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5312,14 +4774,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>72</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5351,14 +4807,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>72</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5390,14 +4840,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>72</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5429,14 +4873,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>72</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5468,14 +4906,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>72</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5507,14 +4939,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>72</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5546,14 +4972,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>72</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5585,14 +5005,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>72</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5624,14 +5038,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>72</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5663,14 +5071,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>72</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5702,14 +5104,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>72</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5741,14 +5137,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>72</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5780,14 +5170,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>72</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5819,14 +5203,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>72</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5858,14 +5236,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>72</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5897,14 +5269,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>72</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5936,14 +5302,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>72</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5975,14 +5335,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>72</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -6014,14 +5368,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>72</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6053,14 +5401,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>72</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6092,14 +5434,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>72</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6131,14 +5467,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>72</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6170,14 +5500,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>72</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6209,14 +5533,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>72</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6248,14 +5566,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>72</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6287,14 +5599,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>72</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6326,14 +5632,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>72</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6365,14 +5665,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>72</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6404,14 +5698,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>72</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6443,14 +5731,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>72</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6482,14 +5764,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>72</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6521,14 +5797,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>72</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6560,14 +5830,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>72</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6596,19 +5860,13 @@
         <v>-1452775.74522458</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>72</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
-        <v>1.024166666666667</v>
+        <v>1</v>
       </c>
       <c r="M157" t="inlineStr"/>
     </row>
@@ -6635,7 +5893,7 @@
         <v>-1535734.89042458</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6668,7 +5926,7 @@
         <v>-1728482.22119717</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6701,7 +5959,7 @@
         <v>-1709638.05689717</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6734,7 +5992,7 @@
         <v>-1727947.71169717</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6767,7 +6025,7 @@
         <v>-1724725.486697169</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6800,7 +6058,7 @@
         <v>-1724725.486697169</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6833,7 +6091,7 @@
         <v>-1693401.38879717</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -15974,7 +15232,7 @@
         <v>-1115296.861367679</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16007,7 +15265,7 @@
         <v>-1109322.323467679</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16040,7 +15298,7 @@
         <v>-1118234.223467679</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16073,7 +15331,7 @@
         <v>-1117247.381367679</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16106,7 +15364,7 @@
         <v>-1142892.975067679</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16139,7 +15397,7 @@
         <v>-1193290.938167679</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16172,7 +15430,7 @@
         <v>-1175049.963567679</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16205,7 +15463,7 @@
         <v>-1229467.197167679</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16238,7 +15496,7 @@
         <v>-1229467.197167679</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16271,7 +15529,7 @@
         <v>-1147078.455667679</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16304,7 +15562,7 @@
         <v>-1111971.903067679</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16337,7 +15595,7 @@
         <v>-940395.2804676787</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16370,7 +15628,7 @@
         <v>-867995.1940676786</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16403,7 +15661,7 @@
         <v>-867995.1940676786</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16469,7 +15727,7 @@
         <v>-936945.8591676786</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16502,7 +15760,7 @@
         <v>-936945.8591676786</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16535,7 +15793,7 @@
         <v>-908478.4517676786</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16568,7 +15826,7 @@
         <v>-788118.1630676786</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16601,7 +15859,7 @@
         <v>-833784.2729676786</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16634,7 +15892,7 @@
         <v>-875138.1189676786</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16667,7 +15925,7 @@
         <v>-867722.1909676787</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16700,7 +15958,7 @@
         <v>-886134.1808676787</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16733,7 +15991,7 @@
         <v>-882144.0780676787</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16766,7 +16024,7 @@
         <v>-880844.0780676787</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16799,7 +16057,7 @@
         <v>-835107.1564676787</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16832,7 +16090,7 @@
         <v>-772797.5995676788</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16865,7 +16123,7 @@
         <v>-772797.5995676788</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16898,7 +16156,7 @@
         <v>-796095.5075676788</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16931,7 +16189,7 @@
         <v>-788845.5075676788</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16964,7 +16222,7 @@
         <v>-769320.7680676788</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16997,7 +16255,7 @@
         <v>-866084.8896676787</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17030,7 +16288,7 @@
         <v>-866084.8896676787</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17063,7 +16321,7 @@
         <v>-853751.8608676788</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17096,7 +16354,7 @@
         <v>-906779.8598676787</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17129,7 +16387,7 @@
         <v>-906779.8598676787</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17162,7 +16420,7 @@
         <v>-906779.8598676787</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17195,7 +16453,7 @@
         <v>-906779.8598676787</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17228,7 +16486,7 @@
         <v>-939007.8801676787</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17261,7 +16519,7 @@
         <v>-939007.8801676787</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17294,7 +16552,7 @@
         <v>-935460.0021676787</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17327,7 +16585,7 @@
         <v>-935460.0021676787</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17360,7 +16618,7 @@
         <v>-994966.6010389187</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17393,7 +16651,7 @@
         <v>-994966.6010389187</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17426,7 +16684,7 @@
         <v>-852021.8621389187</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17459,7 +16717,7 @@
         <v>-852021.8621389187</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17492,7 +16750,7 @@
         <v>-903590.1167389187</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17525,7 +16783,7 @@
         <v>-1059626.147438919</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17558,7 +16816,7 @@
         <v>-1059626.147438919</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17591,7 +16849,7 @@
         <v>-1013385.945138919</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17624,7 +16882,7 @@
         <v>-1013385.945138919</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17657,7 +16915,7 @@
         <v>-857455.4935389187</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17690,7 +16948,7 @@
         <v>-583485.0187389187</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17723,7 +16981,7 @@
         <v>-583485.0187389187</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17756,7 +17014,7 @@
         <v>-597755.7493389187</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17789,7 +17047,7 @@
         <v>-653742.4484389187</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17822,7 +17080,7 @@
         <v>-686853.1723389187</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17855,7 +17113,7 @@
         <v>-686813.5538389187</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17888,7 +17146,7 @@
         <v>-678131.5188389187</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17921,7 +17179,7 @@
         <v>-674227.7478389187</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17954,7 +17212,7 @@
         <v>-674227.7478389187</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17987,7 +17245,7 @@
         <v>-752874.0338389187</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18020,7 +17278,7 @@
         <v>-733495.4658389187</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18053,7 +17311,7 @@
         <v>-733495.4658389187</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18086,7 +17344,7 @@
         <v>-733495.4658389187</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18119,7 +17377,7 @@
         <v>-709129.7756389187</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18152,7 +17410,7 @@
         <v>-755737.3460389187</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18185,7 +17443,7 @@
         <v>-755737.3460389187</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18218,7 +17476,7 @@
         <v>-763725.3160389187</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18251,7 +17509,7 @@
         <v>-740910.2191389187</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18284,7 +17542,7 @@
         <v>-754480.7323389187</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18317,7 +17575,7 @@
         <v>-754480.7323389187</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18350,7 +17608,7 @@
         <v>-956066.1065282488</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18383,7 +17641,7 @@
         <v>-1068722.392328249</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18416,7 +17674,7 @@
         <v>-940546.4349282489</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18449,7 +17707,7 @@
         <v>-963498.1532282488</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18482,7 +17740,7 @@
         <v>-1040788.882928249</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18515,7 +17773,7 @@
         <v>-1030904.382228249</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18548,7 +17806,7 @@
         <v>-1030185.461828249</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18581,7 +17839,7 @@
         <v>-1014848.843428249</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18614,7 +17872,7 @@
         <v>-1008705.002828249</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18647,7 +17905,7 @@
         <v>-1008705.002828249</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18680,7 +17938,7 @@
         <v>-1021135.509828249</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18713,7 +17971,7 @@
         <v>-1021135.509828249</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18746,7 +18004,7 @@
         <v>-1021135.509828249</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18779,7 +18037,7 @@
         <v>-1006332.059428249</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18812,7 +18070,7 @@
         <v>-978200.2337282489</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18845,7 +18103,7 @@
         <v>-978498.9368282489</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18878,7 +18136,7 @@
         <v>-1144706.067128249</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18911,7 +18169,7 @@
         <v>-1142664.161628249</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18944,7 +18202,7 @@
         <v>-1244623.892928249</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18977,7 +18235,7 @@
         <v>-1257317.423828249</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19010,7 +18268,7 @@
         <v>-1257317.423828249</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19043,7 +18301,7 @@
         <v>-1256703.505828249</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19076,7 +18334,7 @@
         <v>-1256703.505828249</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19109,7 +18367,7 @@
         <v>-1252952.137128249</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19142,7 +18400,7 @@
         <v>-1252952.137128249</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19175,7 +18433,7 @@
         <v>-1286110.631128249</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19208,7 +18466,7 @@
         <v>-1246814.719628249</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19241,7 +18499,7 @@
         <v>-1280114.601628249</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19274,7 +18532,7 @@
         <v>-1270997.159628249</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19307,7 +18565,7 @@
         <v>-1278836.959628249</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19340,7 +18598,7 @@
         <v>-1336372.801028249</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19373,7 +18631,7 @@
         <v>-1138298.466228249</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19406,7 +18664,7 @@
         <v>-1274929.929728249</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19439,7 +18697,7 @@
         <v>-1274929.929728249</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19472,7 +18730,7 @@
         <v>-1272896.184728249</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19505,7 +18763,7 @@
         <v>-1272896.184728249</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19538,7 +18796,7 @@
         <v>-1275609.559428249</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19571,7 +18829,7 @@
         <v>-1257678.217428249</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19604,7 +18862,7 @@
         <v>-1260421.217428249</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19637,7 +18895,7 @@
         <v>-1260421.217428249</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19670,7 +18928,7 @@
         <v>-1260421.217428249</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19703,7 +18961,7 @@
         <v>-1310254.846128249</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19736,7 +18994,7 @@
         <v>-1323178.709928249</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19769,7 +19027,7 @@
         <v>-1406412.305528249</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20561,11 +19819,17 @@
         <v>-1617088.129602588</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>73.3</v>
+      </c>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20594,11 +19858,17 @@
         <v>-1699633.484602588</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>73.2</v>
+      </c>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20627,11 +19897,17 @@
         <v>-1668844.739702588</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>73.09999999999999</v>
+      </c>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20660,11 +19936,17 @@
         <v>-1668844.739702588</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>73.5</v>
+      </c>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20693,11 +19975,17 @@
         <v>-1530315.256202588</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>73.5</v>
+      </c>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20726,11 +20014,17 @@
         <v>-1656983.726602588</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>73.8</v>
+      </c>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20759,11 +20053,17 @@
         <v>-1644971.760502588</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>73.59999999999999</v>
+      </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20792,11 +20092,17 @@
         <v>-1631789.036002588</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20829,7 +20135,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20862,7 +20172,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20895,7 +20209,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20928,7 +20246,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20961,7 +20283,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20994,7 +20320,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21027,7 +20357,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21060,7 +20394,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21093,7 +20431,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21126,7 +20468,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21159,7 +20505,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21192,7 +20542,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21225,7 +20579,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21258,7 +20616,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21291,7 +20653,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21324,7 +20690,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21357,7 +20727,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21390,7 +20764,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21423,7 +20801,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21456,7 +20838,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21489,7 +20875,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21522,7 +20912,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21555,7 +20949,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21588,7 +20986,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21621,7 +21023,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21654,7 +21060,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21687,7 +21097,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21720,7 +21134,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21753,7 +21171,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21786,7 +21208,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21819,7 +21245,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21852,7 +21282,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21885,7 +21319,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21918,7 +21356,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21951,7 +21393,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21984,7 +21430,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22017,7 +21467,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22050,7 +21504,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22083,7 +21541,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22116,7 +21578,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22149,7 +21615,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22182,7 +21652,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22215,7 +21689,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22248,7 +21726,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22281,7 +21763,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22314,7 +21800,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22347,7 +21837,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22380,7 +21874,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22413,7 +21911,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22446,7 +21948,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22479,7 +21985,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22512,7 +22022,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22545,7 +22059,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22578,7 +22096,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22611,7 +22133,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22644,7 +22170,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22677,7 +22207,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22710,7 +22244,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22743,7 +22281,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22776,7 +22318,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22809,7 +22355,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22842,7 +22392,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22875,7 +22429,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22908,7 +22466,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22941,7 +22503,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22974,7 +22540,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23007,7 +22577,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23040,7 +22614,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23073,7 +22651,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23106,7 +22688,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23139,7 +22725,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23172,7 +22762,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23205,7 +22799,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23238,7 +22836,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23271,7 +22873,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23304,7 +22910,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23337,7 +22947,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23370,7 +22984,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23403,7 +23021,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23436,7 +23058,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23469,7 +23095,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23502,7 +23132,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23535,7 +23169,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23568,7 +23206,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23601,7 +23243,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23634,7 +23280,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23667,7 +23317,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23700,7 +23354,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23733,7 +23391,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23766,7 +23428,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23799,7 +23465,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23832,7 +23502,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23865,7 +23539,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23898,7 +23576,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23931,7 +23613,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23964,7 +23650,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23997,7 +23687,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24030,7 +23724,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24063,7 +23761,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24096,7 +23798,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24129,7 +23835,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24162,7 +23872,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24195,7 +23909,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24228,7 +23946,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24261,7 +23983,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24294,7 +24020,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24327,7 +24057,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24360,7 +24094,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24393,7 +24131,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24426,7 +24168,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24459,7 +24205,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24492,7 +24242,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24525,7 +24279,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24558,7 +24316,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24591,7 +24353,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24624,7 +24390,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24657,7 +24427,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24690,7 +24464,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24723,7 +24501,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24756,7 +24538,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24789,7 +24575,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24822,7 +24612,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24855,7 +24649,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24888,7 +24686,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24921,7 +24723,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24954,7 +24760,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24987,7 +24797,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25020,7 +24834,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25053,7 +24871,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25086,7 +24908,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25119,7 +24945,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25152,7 +24982,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25185,7 +25019,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25218,7 +25056,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25251,7 +25093,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25284,7 +25130,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25317,7 +25167,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25350,7 +25204,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25383,7 +25241,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25416,7 +25278,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25449,7 +25315,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25482,7 +25352,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25515,7 +25389,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25548,7 +25426,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25581,7 +25463,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25614,7 +25500,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25647,7 +25537,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25680,7 +25574,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25713,7 +25611,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25746,7 +25648,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25779,7 +25685,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25812,7 +25722,11 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25845,7 +25759,11 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25878,7 +25796,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25911,7 +25833,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25944,7 +25870,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25977,7 +25907,11 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -26010,7 +25944,11 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -26043,7 +25981,11 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26076,7 +26018,11 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26109,7 +26055,11 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26142,7 +26092,11 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26175,7 +26129,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26208,7 +26166,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26241,7 +26203,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26274,7 +26240,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26307,7 +26277,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26340,7 +26314,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26373,7 +26351,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26406,7 +26388,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26439,7 +26425,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26472,7 +26462,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26505,7 +26499,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26538,7 +26536,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26571,7 +26573,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26604,7 +26610,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26637,7 +26647,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26670,7 +26684,11 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26703,7 +26721,11 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26736,7 +26758,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26769,7 +26795,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26802,7 +26832,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26831,11 +26865,17 @@
         <v>-2750383.605491539</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26864,11 +26904,17 @@
         <v>-2767470.196891539</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26897,11 +26943,17 @@
         <v>-2746284.399691539</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>73.90000000000001</v>
+      </c>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26930,11 +26982,17 @@
         <v>-2746284.399691539</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>74</v>
+      </c>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26963,11 +27021,17 @@
         <v>-2746284.399691539</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>74</v>
+      </c>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26996,11 +27060,17 @@
         <v>-2746284.399691539</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I775" t="n">
+        <v>74</v>
+      </c>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -27029,11 +27099,17 @@
         <v>-2746284.399691539</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
-      </c>
-      <c r="I776" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I776" t="n">
+        <v>74</v>
+      </c>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -27062,11 +27138,17 @@
         <v>-2746084.399691539</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
-      </c>
-      <c r="I777" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I777" t="n">
+        <v>74</v>
+      </c>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -27099,7 +27181,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -27132,7 +27218,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -27165,7 +27255,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -27198,7 +27292,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -27231,7 +27329,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -27264,7 +27366,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -27297,7 +27403,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -27330,7 +27440,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27363,7 +27477,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27396,7 +27514,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -27425,11 +27547,17 @@
         <v>-2801428.726291539</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>73.5</v>
+      </c>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -27462,7 +27590,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -27495,7 +27627,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -27528,7 +27664,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -27557,11 +27697,17 @@
         <v>-2991858.540091539</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I792" t="n">
+        <v>73.09999999999999</v>
+      </c>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -27590,11 +27736,17 @@
         <v>-2976209.788100289</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I793" t="n">
+        <v>73</v>
+      </c>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -27623,11 +27775,17 @@
         <v>-2976209.788100289</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I794" t="n">
+        <v>73.2</v>
+      </c>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -27656,11 +27814,17 @@
         <v>-2984478.538000289</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I795" t="n">
+        <v>73.2</v>
+      </c>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -27689,11 +27853,17 @@
         <v>-2984478.538000289</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>73</v>
+      </c>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27722,11 +27892,17 @@
         <v>-3026976.534400289</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>73</v>
+      </c>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27755,11 +27931,17 @@
         <v>-3006861.501000289</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>72.8</v>
+      </c>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27788,11 +27970,17 @@
         <v>-2996802.296600289</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>72.90000000000001</v>
+      </c>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27821,11 +28009,17 @@
         <v>-2984061.370200288</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>73.3</v>
+      </c>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27854,11 +28048,17 @@
         <v>-2984496.147800289</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
-      </c>
-      <c r="I801" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I801" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27887,11 +28087,17 @@
         <v>-2984496.147800289</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I802" t="n">
+        <v>73.2</v>
+      </c>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27920,11 +28126,17 @@
         <v>-2984496.147800289</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
+        <v>73.2</v>
+      </c>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27957,7 +28169,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27986,11 +28202,17 @@
         <v>-2990202.653800289</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I805" t="n">
+        <v>72.8</v>
+      </c>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -28019,11 +28241,17 @@
         <v>-3025103.685300289</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I806" t="n">
+        <v>73</v>
+      </c>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -28052,11 +28280,17 @@
         <v>-3024000.423000289</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
-      </c>
-      <c r="I807" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I807" t="n">
+        <v>72.8</v>
+      </c>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -28085,11 +28319,17 @@
         <v>-3040985.354200289</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I808" t="n">
+        <v>72.90000000000001</v>
+      </c>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -28118,11 +28358,17 @@
         <v>-3030985.354200289</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
-      </c>
-      <c r="I809" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I809" t="n">
+        <v>72.8</v>
+      </c>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -28151,11 +28397,17 @@
         <v>-3075177.922600289</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
-      </c>
-      <c r="I810" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I810" t="n">
+        <v>72.90000000000001</v>
+      </c>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -28184,11 +28436,17 @@
         <v>-3157545.765000289</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
-      </c>
-      <c r="I811" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I811" t="n">
+        <v>72.8</v>
+      </c>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -28217,11 +28475,17 @@
         <v>-3204113.810500289</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I812" t="n">
+        <v>72.7</v>
+      </c>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -28250,11 +28514,17 @@
         <v>-3189781.958700289</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I813" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -28283,11 +28553,17 @@
         <v>-3209346.096800289</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
-      </c>
-      <c r="I814" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I814" t="n">
+        <v>72.90000000000001</v>
+      </c>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -28316,11 +28592,17 @@
         <v>-3209346.096800289</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I815" t="n">
+        <v>72.7</v>
+      </c>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -28349,11 +28631,17 @@
         <v>-3181932.592900289</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I816" t="n">
+        <v>72.7</v>
+      </c>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -28382,11 +28670,17 @@
         <v>-3204169.592900289</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I817" t="n">
+        <v>72.8</v>
+      </c>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -28415,11 +28709,17 @@
         <v>-3208736.766400289</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>72.7</v>
+      </c>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -28448,11 +28748,17 @@
         <v>-3208736.766400289</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
-      </c>
-      <c r="I819" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I819" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -28481,11 +28787,17 @@
         <v>-3134098.756825539</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -28514,11 +28826,17 @@
         <v>-3068228.292125539</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I821" t="n">
+        <v>73</v>
+      </c>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -28551,7 +28869,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -28584,7 +28906,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -28617,7 +28943,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -28650,7 +28980,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -28683,7 +29017,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -28716,7 +29054,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -28749,7 +29091,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -28782,7 +29128,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -28815,7 +29165,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -28848,7 +29202,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -28881,7 +29239,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28914,7 +29276,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -28947,7 +29313,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28980,7 +29350,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -29013,13 +29387,17 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
       <c r="M836" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest XLM.xlsx
+++ b/BackTest/2019-10-26 BackTest XLM.xlsx
@@ -484,10 +484,14 @@
         <v>-136243.68443592</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>72.3</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-136475.44823592</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-136475.44823592</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>72</v>
+      </c>
+      <c r="J5" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>-136475.44823592</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>72</v>
+      </c>
+      <c r="J6" t="n">
+        <v>72</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>-136475.44823592</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>72</v>
+      </c>
+      <c r="J7" t="n">
+        <v>72</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>-136475.44823592</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>72</v>
+      </c>
+      <c r="J8" t="n">
+        <v>72</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -719,9 +759,11 @@
         <v>-107529.50663592</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>72.09999999999999</v>
+      </c>
       <c r="J10" t="n">
         <v>72</v>
       </c>
@@ -758,9 +800,11 @@
         <v>-107529.50743592</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>72.2</v>
+      </c>
       <c r="J11" t="n">
         <v>72</v>
       </c>
@@ -797,11 +841,19 @@
         <v>-197692.67873592</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="J12" t="n">
+        <v>72</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -836,9 +888,13 @@
         <v>71.8</v>
       </c>
       <c r="J13" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
+        <v>72</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -867,15 +923,17 @@
         <v>-195878.57433592</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>71.8</v>
+      </c>
       <c r="J14" t="n">
-        <v>71.8</v>
+        <v>72</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -906,15 +964,17 @@
         <v>-195878.57433592</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>71.90000000000001</v>
+      </c>
       <c r="J15" t="n">
-        <v>71.8</v>
+        <v>72</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -945,11 +1005,19 @@
         <v>-118198.43243592</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="J16" t="n">
+        <v>72</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -978,11 +1046,19 @@
         <v>-118198.43243592</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>72</v>
+      </c>
+      <c r="J17" t="n">
+        <v>72</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1011,11 +1087,19 @@
         <v>-130492.85913592</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>72</v>
+      </c>
+      <c r="J18" t="n">
+        <v>72</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1044,11 +1128,19 @@
         <v>-127292.85913592</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="J19" t="n">
+        <v>72</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1077,11 +1169,19 @@
         <v>-127292.85913592</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>72</v>
+      </c>
+      <c r="J20" t="n">
+        <v>72</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1118,7 +1218,11 @@
       <c r="J21" t="n">
         <v>72</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1147,15 +1251,17 @@
         <v>-143999.92973592</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>72</v>
+      </c>
       <c r="J22" t="n">
         <v>72</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1186,15 +1292,17 @@
         <v>-118933.43113592</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>71.90000000000001</v>
+      </c>
       <c r="J23" t="n">
         <v>72</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1225,11 +1333,19 @@
         <v>-115688.99773592</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>72</v>
+      </c>
+      <c r="J24" t="n">
+        <v>72</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1258,11 +1374,19 @@
         <v>-115688.99773592</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="J25" t="n">
+        <v>72</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1291,11 +1415,19 @@
         <v>-115688.99773592</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="J26" t="n">
+        <v>72</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1324,11 +1456,19 @@
         <v>-115770.99773592</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="J27" t="n">
+        <v>72</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1365,7 +1505,11 @@
       <c r="J28" t="n">
         <v>72</v>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1404,7 +1548,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -1435,15 +1579,17 @@
         <v>-109046.29943592</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>72</v>
+      </c>
       <c r="J30" t="n">
         <v>72</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -1474,9 +1620,11 @@
         <v>-108867.91223592</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>72.09999999999999</v>
+      </c>
       <c r="J31" t="n">
         <v>72</v>
       </c>
@@ -1513,9 +1661,11 @@
         <v>-108867.91223592</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>72.3</v>
+      </c>
       <c r="J32" t="n">
         <v>72</v>
       </c>
@@ -1552,9 +1702,11 @@
         <v>-111069.09293592</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>72.3</v>
+      </c>
       <c r="J33" t="n">
         <v>72</v>
       </c>
@@ -1591,9 +1743,11 @@
         <v>-111069.09293592</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>72.2</v>
+      </c>
       <c r="J34" t="n">
         <v>72</v>
       </c>
@@ -1630,9 +1784,11 @@
         <v>-111069.09293592</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>72.2</v>
+      </c>
       <c r="J35" t="n">
         <v>72</v>
       </c>
@@ -2917,7 +3073,7 @@
         <v>529199.6665640799</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
@@ -2925,11 +3081,11 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.0325</v>
+        <v>1</v>
       </c>
       <c r="M68" t="inlineStr"/>
     </row>
@@ -2956,11 +3112,17 @@
         <v>620931.25836408</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>72</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2989,11 +3151,17 @@
         <v>498866.38666408</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>72</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3022,11 +3190,17 @@
         <v>342365.09346408</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>72</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3055,11 +3229,17 @@
         <v>407927.80846408</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>72</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3091,8 +3271,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>72</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3124,8 +3310,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>72</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3157,8 +3349,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>72</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3190,8 +3388,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>72</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3223,8 +3427,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>72</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3256,8 +3466,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>72</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3289,8 +3505,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>72</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3322,8 +3544,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>72</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3355,8 +3583,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>72</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3388,8 +3622,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>72</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3421,8 +3661,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>72</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3454,8 +3700,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>72</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3487,8 +3739,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>72</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3520,8 +3778,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>72</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3553,8 +3817,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>72</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3586,8 +3856,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>72</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3616,11 +3892,17 @@
         <v>458691.77234801</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>72</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3649,11 +3931,17 @@
         <v>465458.31447542</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>72</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3682,11 +3970,17 @@
         <v>582962.81937542</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>72</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3715,11 +4009,17 @@
         <v>693229.65477542</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>72</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3748,11 +4048,17 @@
         <v>755096.2780754199</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>72</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3781,11 +4087,17 @@
         <v>755096.2780754199</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>72</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3814,11 +4126,17 @@
         <v>755096.2780754199</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>72</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3847,11 +4165,17 @@
         <v>565297.1494754199</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>72</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3880,11 +4204,17 @@
         <v>493065.8950754199</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>72</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3913,11 +4243,17 @@
         <v>500158.8859754199</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>72</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3946,11 +4282,17 @@
         <v>494882.9973754199</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>72</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3979,11 +4321,17 @@
         <v>494882.9973754199</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>72</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4012,11 +4360,17 @@
         <v>494682.9973754199</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>72</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4045,11 +4399,17 @@
         <v>494682.9973754199</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>72</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4078,11 +4438,17 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>72</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4111,11 +4477,17 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>72</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4144,11 +4516,17 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>72</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4177,11 +4555,17 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>72</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4210,11 +4594,17 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>72</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4243,11 +4633,17 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>72</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4276,11 +4672,17 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>72</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4309,11 +4711,17 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>72</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4342,11 +4750,17 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>72</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4378,8 +4792,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>72</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4408,11 +4828,17 @@
         <v>620815.4385754198</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>72</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4444,8 +4870,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>72</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4477,8 +4909,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>72</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4510,8 +4948,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>72</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4543,8 +4987,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>72</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4576,8 +5026,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>72</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4609,8 +5065,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>72</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4642,8 +5104,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>72</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4675,8 +5143,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>72</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4708,8 +5182,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>72</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4741,8 +5221,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>72</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4774,8 +5260,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>72</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4807,8 +5299,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>72</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4840,8 +5338,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>72</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4873,8 +5377,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>72</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4906,8 +5416,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>72</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4939,8 +5455,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>72</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4972,8 +5494,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>72</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5005,8 +5533,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>72</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5038,8 +5572,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>72</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5071,8 +5611,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>72</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5104,8 +5650,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>72</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5137,8 +5689,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>72</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5170,8 +5728,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>72</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5203,8 +5767,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>72</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5236,8 +5806,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>72</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5269,8 +5845,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>72</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5302,8 +5884,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>72</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5335,8 +5923,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>72</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5368,8 +5962,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>72</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5401,8 +6001,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>72</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5434,8 +6040,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>72</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5467,8 +6079,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>72</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5500,8 +6118,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>72</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5533,8 +6157,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>72</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5566,8 +6196,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>72</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5599,8 +6235,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>72</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5629,15 +6271,23 @@
         <v>2614343.52747542</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>72</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>1.053333333333333</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1.004166666666667</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5662,7 +6312,7 @@
         <v>2362343.81477542</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -10645,10 +11295,14 @@
         <v>-5972571.13566768</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="J302" t="n">
+        <v>75.09999999999999</v>
+      </c>
       <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
@@ -10678,11 +11332,19 @@
         <v>-5972571.13566768</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="J303" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10711,11 +11373,19 @@
         <v>-5982571.13566768</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="J304" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10744,11 +11414,19 @@
         <v>-3982571.13566768</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>75</v>
+      </c>
+      <c r="J305" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10777,11 +11455,19 @@
         <v>-3982571.13566768</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="J306" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10810,11 +11496,19 @@
         <v>-3972571.13566768</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="J307" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10843,11 +11537,19 @@
         <v>-3972571.13566768</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="J308" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10876,11 +11578,19 @@
         <v>-3972571.13566768</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="J309" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10909,11 +11619,19 @@
         <v>-3972571.13566768</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="J310" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10942,11 +11660,19 @@
         <v>-3969682.07856768</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="J311" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10975,11 +11701,19 @@
         <v>-3974892.92426768</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="J312" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11008,11 +11742,19 @@
         <v>-3974892.92426768</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="J313" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11041,11 +11783,19 @@
         <v>-3974892.92426768</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="J314" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11077,8 +11827,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11110,8 +11866,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11140,11 +11902,19 @@
         <v>-1774892.92426768</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="J317" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11176,8 +11946,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11209,8 +11985,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11242,8 +12024,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11275,8 +12063,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11308,8 +12102,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11341,8 +12141,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11374,8 +12180,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11407,8 +12219,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11440,8 +12258,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11473,8 +12297,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11506,8 +12336,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11539,8 +12375,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11572,8 +12414,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11605,8 +12453,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11638,8 +12492,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11671,8 +12531,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11704,8 +12570,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11737,8 +12609,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11770,8 +12648,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11803,8 +12687,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11836,8 +12726,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11869,8 +12765,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11902,8 +12804,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11935,8 +12843,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11968,8 +12882,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12001,8 +12921,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12034,8 +12960,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12067,8 +12999,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12100,8 +13038,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12133,8 +13077,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12166,8 +13116,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12199,8 +13155,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12232,8 +13194,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12265,8 +13233,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12298,8 +13272,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12331,8 +13311,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12364,8 +13350,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12397,8 +13389,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12430,8 +13428,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12463,8 +13467,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12496,8 +13506,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12529,8 +13545,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12562,8 +13584,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12595,8 +13623,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12628,8 +13662,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12661,8 +13701,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12694,8 +13740,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12727,8 +13779,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12760,8 +13818,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12793,8 +13857,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12826,8 +13896,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12859,8 +13935,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12892,8 +13974,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12925,8 +14013,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12958,8 +14052,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12991,8 +14091,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13024,8 +14130,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13057,8 +14169,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13090,8 +14208,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13123,8 +14247,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13156,8 +14286,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13189,8 +14325,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13222,8 +14364,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13255,8 +14403,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13288,8 +14442,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13321,8 +14481,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13354,8 +14520,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13387,8 +14559,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13420,8 +14598,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13453,8 +14637,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13486,8 +14676,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13519,8 +14715,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13552,8 +14754,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13585,8 +14793,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13618,8 +14832,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13651,8 +14871,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13684,8 +14910,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13717,8 +14949,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13750,8 +14988,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13783,8 +15027,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13816,8 +15066,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13849,8 +15105,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13882,8 +15144,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13915,8 +15183,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13948,8 +15222,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13981,8 +15261,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14014,8 +15300,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14047,8 +15339,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14080,8 +15378,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14113,8 +15417,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14146,8 +15456,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14179,8 +15495,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14212,8 +15534,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14245,8 +15573,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14278,8 +15612,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14311,8 +15651,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14344,8 +15690,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14377,8 +15729,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14410,8 +15768,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14443,8 +15807,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14476,8 +15846,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14509,8 +15885,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14542,8 +15924,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14575,8 +15963,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14608,8 +16002,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14641,8 +16041,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14671,13 +16077,19 @@
         <v>-969932.3860676787</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L424" t="n">
-        <v>1</v>
+        <v>1.013641810918775</v>
       </c>
       <c r="M424" t="inlineStr"/>
     </row>
@@ -14704,7 +16116,7 @@
         <v>-1136605.054667679</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14737,7 +16149,7 @@
         <v>-1197350.788567679</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14803,7 +16215,7 @@
         <v>-1197350.788567679</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14836,7 +16248,7 @@
         <v>-1197350.788567679</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15133,7 +16545,7 @@
         <v>-946276.8888676789</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15166,7 +16578,7 @@
         <v>-912214.997267679</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15199,7 +16611,7 @@
         <v>-1103284.895267679</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15232,7 +16644,7 @@
         <v>-1115296.861367679</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15265,7 +16677,7 @@
         <v>-1109322.323467679</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15298,7 +16710,7 @@
         <v>-1118234.223467679</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15331,7 +16743,7 @@
         <v>-1117247.381367679</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15364,7 +16776,7 @@
         <v>-1142892.975067679</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15397,7 +16809,7 @@
         <v>-1193290.938167679</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15496,7 +16908,7 @@
         <v>-1229467.197167679</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15595,7 +17007,7 @@
         <v>-940395.2804676787</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15628,7 +17040,7 @@
         <v>-867995.1940676786</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15661,7 +17073,7 @@
         <v>-867995.1940676786</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15694,7 +17106,7 @@
         <v>-907191.5371676786</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15727,7 +17139,7 @@
         <v>-936945.8591676786</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15760,7 +17172,7 @@
         <v>-936945.8591676786</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15793,7 +17205,7 @@
         <v>-908478.4517676786</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15826,7 +17238,7 @@
         <v>-788118.1630676786</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15859,7 +17271,7 @@
         <v>-833784.2729676786</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15892,7 +17304,7 @@
         <v>-875138.1189676786</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15925,7 +17337,7 @@
         <v>-867722.1909676787</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15958,7 +17370,7 @@
         <v>-886134.1808676787</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15991,7 +17403,7 @@
         <v>-882144.0780676787</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16024,7 +17436,7 @@
         <v>-880844.0780676787</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16057,7 +17469,7 @@
         <v>-835107.1564676787</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16090,7 +17502,7 @@
         <v>-772797.5995676788</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16123,7 +17535,7 @@
         <v>-772797.5995676788</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16156,7 +17568,7 @@
         <v>-796095.5075676788</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16189,7 +17601,7 @@
         <v>-788845.5075676788</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16222,7 +17634,7 @@
         <v>-769320.7680676788</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16255,7 +17667,7 @@
         <v>-866084.8896676787</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16288,7 +17700,7 @@
         <v>-866084.8896676787</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16321,7 +17733,7 @@
         <v>-853751.8608676788</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16354,7 +17766,7 @@
         <v>-906779.8598676787</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16387,7 +17799,7 @@
         <v>-906779.8598676787</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16420,7 +17832,7 @@
         <v>-906779.8598676787</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16453,7 +17865,7 @@
         <v>-906779.8598676787</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16486,7 +17898,7 @@
         <v>-939007.8801676787</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16519,7 +17931,7 @@
         <v>-939007.8801676787</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16552,7 +17964,7 @@
         <v>-935460.0021676787</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16585,7 +17997,7 @@
         <v>-935460.0021676787</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16618,7 +18030,7 @@
         <v>-994966.6010389187</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16651,7 +18063,7 @@
         <v>-994966.6010389187</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16684,7 +18096,7 @@
         <v>-852021.8621389187</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16717,7 +18129,7 @@
         <v>-852021.8621389187</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16750,7 +18162,7 @@
         <v>-903590.1167389187</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16783,7 +18195,7 @@
         <v>-1059626.147438919</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16816,7 +18228,7 @@
         <v>-1059626.147438919</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16849,7 +18261,7 @@
         <v>-1013385.945138919</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16882,7 +18294,7 @@
         <v>-1013385.945138919</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16915,7 +18327,7 @@
         <v>-857455.4935389187</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16948,7 +18360,7 @@
         <v>-583485.0187389187</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16981,7 +18393,7 @@
         <v>-583485.0187389187</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17014,7 +18426,7 @@
         <v>-597755.7493389187</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17047,7 +18459,7 @@
         <v>-653742.4484389187</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17080,7 +18492,7 @@
         <v>-686853.1723389187</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17113,7 +18525,7 @@
         <v>-686813.5538389187</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17146,7 +18558,7 @@
         <v>-678131.5188389187</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17179,7 +18591,7 @@
         <v>-674227.7478389187</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17212,7 +18624,7 @@
         <v>-674227.7478389187</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17245,7 +18657,7 @@
         <v>-752874.0338389187</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17278,7 +18690,7 @@
         <v>-733495.4658389187</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17311,7 +18723,7 @@
         <v>-733495.4658389187</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17344,7 +18756,7 @@
         <v>-733495.4658389187</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17377,7 +18789,7 @@
         <v>-709129.7756389187</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17410,7 +18822,7 @@
         <v>-755737.3460389187</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17443,7 +18855,7 @@
         <v>-755737.3460389187</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17476,7 +18888,7 @@
         <v>-763725.3160389187</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17509,7 +18921,7 @@
         <v>-740910.2191389187</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17542,7 +18954,7 @@
         <v>-754480.7323389187</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17575,7 +18987,7 @@
         <v>-754480.7323389187</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17608,7 +19020,7 @@
         <v>-956066.1065282488</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17641,7 +19053,7 @@
         <v>-1068722.392328249</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17674,7 +19086,7 @@
         <v>-940546.4349282489</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17707,7 +19119,7 @@
         <v>-963498.1532282488</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17740,7 +19152,7 @@
         <v>-1040788.882928249</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19819,17 +21231,11 @@
         <v>-1617088.129602588</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
-      </c>
-      <c r="I580" t="n">
-        <v>73.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19858,17 +21264,11 @@
         <v>-1699633.484602588</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
-      </c>
-      <c r="I581" t="n">
-        <v>73.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19897,17 +21297,11 @@
         <v>-1668844.739702588</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
-      </c>
-      <c r="I582" t="n">
-        <v>73.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19936,17 +21330,11 @@
         <v>-1668844.739702588</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
-      </c>
-      <c r="I583" t="n">
-        <v>73.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19975,17 +21363,11 @@
         <v>-1530315.256202588</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
-      </c>
-      <c r="I584" t="n">
-        <v>73.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20014,17 +21396,11 @@
         <v>-1656983.726602588</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
-      </c>
-      <c r="I585" t="n">
-        <v>73.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20053,17 +21429,11 @@
         <v>-1644971.760502588</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
-      </c>
-      <c r="I586" t="n">
-        <v>73.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20092,17 +21462,11 @@
         <v>-1631789.036002588</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
-      </c>
-      <c r="I587" t="n">
-        <v>74.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20135,11 +21499,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20172,11 +21532,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20209,11 +21565,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20246,11 +21598,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20283,11 +21631,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20320,11 +21664,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20357,11 +21697,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20394,11 +21730,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20431,11 +21763,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20468,11 +21796,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20505,11 +21829,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20542,11 +21862,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20579,11 +21895,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20616,11 +21928,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20653,11 +21961,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20690,11 +21994,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20727,11 +22027,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20764,11 +22060,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20801,11 +22093,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20838,11 +22126,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20875,11 +22159,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20912,11 +22192,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20949,11 +22225,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20986,11 +22258,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21023,11 +22291,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21060,11 +22324,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21097,11 +22357,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21134,11 +22390,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21171,11 +22423,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21208,11 +22456,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21245,11 +22489,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21282,11 +22522,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21319,11 +22555,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21356,11 +22588,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21393,11 +22621,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21430,11 +22654,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21467,11 +22687,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21504,11 +22720,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21541,11 +22753,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21578,11 +22786,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21615,11 +22819,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21652,11 +22852,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21689,11 +22885,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21726,11 +22918,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21763,11 +22951,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21800,11 +22984,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21837,11 +23017,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21874,11 +23050,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21911,11 +23083,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21948,11 +23116,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21985,11 +23149,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22022,11 +23182,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22059,11 +23215,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22096,11 +23248,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22133,11 +23281,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22170,11 +23314,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22207,11 +23347,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22244,11 +23380,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22281,11 +23413,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22318,11 +23446,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22355,11 +23479,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22392,11 +23512,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22429,11 +23545,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22466,11 +23578,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22503,11 +23611,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22540,11 +23644,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22577,11 +23677,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22614,11 +23710,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22651,11 +23743,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22688,11 +23776,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22725,11 +23809,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22762,11 +23842,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22799,11 +23875,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22836,11 +23908,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22873,11 +23941,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22910,11 +23974,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22947,11 +24007,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22984,11 +24040,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23021,11 +24073,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23058,11 +24106,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23095,11 +24139,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23132,11 +24172,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23169,11 +24205,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23206,11 +24238,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23243,11 +24271,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23280,11 +24304,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23317,11 +24337,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23354,11 +24370,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23391,11 +24403,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23428,11 +24436,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23465,11 +24469,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23502,11 +24502,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23539,11 +24535,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23576,11 +24568,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23613,11 +24601,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23650,11 +24634,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23687,11 +24667,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23724,11 +24700,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23761,11 +24733,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23798,11 +24766,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23835,11 +24799,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23872,11 +24832,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23909,11 +24865,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23946,11 +24898,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23983,11 +24931,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24020,11 +24964,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24057,11 +24997,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24094,11 +25030,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24131,11 +25063,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24168,11 +25096,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24205,11 +25129,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24242,11 +25162,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24279,11 +25195,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24316,11 +25228,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24353,11 +25261,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24390,11 +25294,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24427,11 +25327,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24464,11 +25360,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24501,11 +25393,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24538,11 +25426,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24575,11 +25459,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24612,11 +25492,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24649,11 +25525,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24686,11 +25558,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24723,11 +25591,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24760,11 +25624,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24797,11 +25657,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24834,11 +25690,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24871,11 +25723,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24908,11 +25756,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24945,11 +25789,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24982,11 +25822,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25019,11 +25855,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25056,11 +25888,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25093,11 +25921,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25130,11 +25954,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25167,11 +25987,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25204,11 +26020,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25241,11 +26053,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25278,11 +26086,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25315,11 +26119,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25352,11 +26152,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25389,11 +26185,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25426,11 +26218,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25463,11 +26251,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25500,11 +26284,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25537,11 +26317,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25574,11 +26350,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25611,11 +26383,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25648,11 +26416,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25685,11 +26449,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25722,11 +26482,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25759,11 +26515,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25796,11 +26548,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25833,11 +26581,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25870,11 +26614,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25907,11 +26647,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25944,11 +26680,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25981,11 +26713,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26018,11 +26746,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26055,11 +26779,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26092,11 +26812,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26129,11 +26845,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26166,11 +26878,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26203,11 +26911,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26240,11 +26944,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26277,11 +26977,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26314,11 +27010,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26351,11 +27043,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26388,11 +27076,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26425,11 +27109,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26462,11 +27142,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26499,11 +27175,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26536,11 +27208,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26573,11 +27241,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26610,11 +27274,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26647,11 +27307,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26684,11 +27340,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26721,11 +27373,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26758,11 +27406,7 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26795,11 +27439,7 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26832,11 +27472,7 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26865,17 +27501,11 @@
         <v>-2750383.605491539</v>
       </c>
       <c r="H770" t="n">
-        <v>1</v>
-      </c>
-      <c r="I770" t="n">
-        <v>74.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26904,17 +27534,11 @@
         <v>-2767470.196891539</v>
       </c>
       <c r="H771" t="n">
-        <v>1</v>
-      </c>
-      <c r="I771" t="n">
-        <v>74.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26943,17 +27567,11 @@
         <v>-2746284.399691539</v>
       </c>
       <c r="H772" t="n">
-        <v>1</v>
-      </c>
-      <c r="I772" t="n">
-        <v>73.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26982,17 +27600,11 @@
         <v>-2746284.399691539</v>
       </c>
       <c r="H773" t="n">
-        <v>1</v>
-      </c>
-      <c r="I773" t="n">
-        <v>74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -27021,17 +27633,11 @@
         <v>-2746284.399691539</v>
       </c>
       <c r="H774" t="n">
-        <v>1</v>
-      </c>
-      <c r="I774" t="n">
-        <v>74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -27060,17 +27666,11 @@
         <v>-2746284.399691539</v>
       </c>
       <c r="H775" t="n">
-        <v>1</v>
-      </c>
-      <c r="I775" t="n">
-        <v>74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -27099,17 +27699,11 @@
         <v>-2746284.399691539</v>
       </c>
       <c r="H776" t="n">
-        <v>1</v>
-      </c>
-      <c r="I776" t="n">
-        <v>74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -27138,17 +27732,11 @@
         <v>-2746084.399691539</v>
       </c>
       <c r="H777" t="n">
-        <v>1</v>
-      </c>
-      <c r="I777" t="n">
-        <v>74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -27181,11 +27769,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -27218,11 +27802,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -27255,11 +27835,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -27292,11 +27868,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -27329,11 +27901,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -27366,11 +27934,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -27403,11 +27967,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -27440,11 +28000,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27477,11 +28033,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27514,11 +28066,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -27547,17 +28095,11 @@
         <v>-2801428.726291539</v>
       </c>
       <c r="H788" t="n">
-        <v>1</v>
-      </c>
-      <c r="I788" t="n">
-        <v>73.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -27590,11 +28132,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -27627,11 +28165,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -27664,11 +28198,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -27697,17 +28227,11 @@
         <v>-2991858.540091539</v>
       </c>
       <c r="H792" t="n">
-        <v>1</v>
-      </c>
-      <c r="I792" t="n">
-        <v>73.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -27736,17 +28260,11 @@
         <v>-2976209.788100289</v>
       </c>
       <c r="H793" t="n">
-        <v>1</v>
-      </c>
-      <c r="I793" t="n">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -27775,17 +28293,11 @@
         <v>-2976209.788100289</v>
       </c>
       <c r="H794" t="n">
-        <v>1</v>
-      </c>
-      <c r="I794" t="n">
-        <v>73.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -27814,17 +28326,11 @@
         <v>-2984478.538000289</v>
       </c>
       <c r="H795" t="n">
-        <v>1</v>
-      </c>
-      <c r="I795" t="n">
-        <v>73.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -27853,17 +28359,11 @@
         <v>-2984478.538000289</v>
       </c>
       <c r="H796" t="n">
-        <v>1</v>
-      </c>
-      <c r="I796" t="n">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27892,17 +28392,11 @@
         <v>-3026976.534400289</v>
       </c>
       <c r="H797" t="n">
-        <v>1</v>
-      </c>
-      <c r="I797" t="n">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27931,17 +28425,11 @@
         <v>-3006861.501000289</v>
       </c>
       <c r="H798" t="n">
-        <v>1</v>
-      </c>
-      <c r="I798" t="n">
-        <v>72.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27970,17 +28458,11 @@
         <v>-2996802.296600289</v>
       </c>
       <c r="H799" t="n">
-        <v>1</v>
-      </c>
-      <c r="I799" t="n">
-        <v>72.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -28009,17 +28491,11 @@
         <v>-2984061.370200288</v>
       </c>
       <c r="H800" t="n">
-        <v>1</v>
-      </c>
-      <c r="I800" t="n">
-        <v>73.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -28048,17 +28524,11 @@
         <v>-2984496.147800289</v>
       </c>
       <c r="H801" t="n">
-        <v>1</v>
-      </c>
-      <c r="I801" t="n">
-        <v>73.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -28087,17 +28557,11 @@
         <v>-2984496.147800289</v>
       </c>
       <c r="H802" t="n">
-        <v>1</v>
-      </c>
-      <c r="I802" t="n">
-        <v>73.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -28126,17 +28590,11 @@
         <v>-2984496.147800289</v>
       </c>
       <c r="H803" t="n">
-        <v>1</v>
-      </c>
-      <c r="I803" t="n">
-        <v>73.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -28169,11 +28627,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -28202,17 +28656,11 @@
         <v>-2990202.653800289</v>
       </c>
       <c r="H805" t="n">
-        <v>1</v>
-      </c>
-      <c r="I805" t="n">
-        <v>72.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -28241,17 +28689,11 @@
         <v>-3025103.685300289</v>
       </c>
       <c r="H806" t="n">
-        <v>1</v>
-      </c>
-      <c r="I806" t="n">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -28280,17 +28722,11 @@
         <v>-3024000.423000289</v>
       </c>
       <c r="H807" t="n">
-        <v>1</v>
-      </c>
-      <c r="I807" t="n">
-        <v>72.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K807" t="inlineStr"/>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -28319,17 +28755,11 @@
         <v>-3040985.354200289</v>
       </c>
       <c r="H808" t="n">
-        <v>1</v>
-      </c>
-      <c r="I808" t="n">
-        <v>72.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K808" t="inlineStr"/>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -28358,17 +28788,11 @@
         <v>-3030985.354200289</v>
       </c>
       <c r="H809" t="n">
-        <v>1</v>
-      </c>
-      <c r="I809" t="n">
-        <v>72.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K809" t="inlineStr"/>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -28397,17 +28821,11 @@
         <v>-3075177.922600289</v>
       </c>
       <c r="H810" t="n">
-        <v>1</v>
-      </c>
-      <c r="I810" t="n">
-        <v>72.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -28436,17 +28854,11 @@
         <v>-3157545.765000289</v>
       </c>
       <c r="H811" t="n">
-        <v>1</v>
-      </c>
-      <c r="I811" t="n">
-        <v>72.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K811" t="inlineStr"/>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -28475,17 +28887,11 @@
         <v>-3204113.810500289</v>
       </c>
       <c r="H812" t="n">
-        <v>1</v>
-      </c>
-      <c r="I812" t="n">
-        <v>72.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -28514,17 +28920,11 @@
         <v>-3189781.958700289</v>
       </c>
       <c r="H813" t="n">
-        <v>1</v>
-      </c>
-      <c r="I813" t="n">
-        <v>72.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K813" t="inlineStr"/>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -28553,17 +28953,11 @@
         <v>-3209346.096800289</v>
       </c>
       <c r="H814" t="n">
-        <v>1</v>
-      </c>
-      <c r="I814" t="n">
-        <v>72.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K814" t="inlineStr"/>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -28592,17 +28986,11 @@
         <v>-3209346.096800289</v>
       </c>
       <c r="H815" t="n">
-        <v>1</v>
-      </c>
-      <c r="I815" t="n">
-        <v>72.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -28631,17 +29019,11 @@
         <v>-3181932.592900289</v>
       </c>
       <c r="H816" t="n">
-        <v>1</v>
-      </c>
-      <c r="I816" t="n">
-        <v>72.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -28670,17 +29052,11 @@
         <v>-3204169.592900289</v>
       </c>
       <c r="H817" t="n">
-        <v>1</v>
-      </c>
-      <c r="I817" t="n">
-        <v>72.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -28709,17 +29085,11 @@
         <v>-3208736.766400289</v>
       </c>
       <c r="H818" t="n">
-        <v>1</v>
-      </c>
-      <c r="I818" t="n">
-        <v>72.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -28748,17 +29118,11 @@
         <v>-3208736.766400289</v>
       </c>
       <c r="H819" t="n">
-        <v>1</v>
-      </c>
-      <c r="I819" t="n">
-        <v>72.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -28787,17 +29151,11 @@
         <v>-3134098.756825539</v>
       </c>
       <c r="H820" t="n">
-        <v>1</v>
-      </c>
-      <c r="I820" t="n">
-        <v>72.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -28826,17 +29184,11 @@
         <v>-3068228.292125539</v>
       </c>
       <c r="H821" t="n">
-        <v>1</v>
-      </c>
-      <c r="I821" t="n">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -28869,11 +29221,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -28906,11 +29254,7 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -28943,11 +29287,7 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -28980,11 +29320,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -29017,11 +29353,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -29054,11 +29386,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -29091,11 +29419,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -29128,11 +29452,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -29165,11 +29485,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -29202,11 +29518,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -29239,11 +29551,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -29276,11 +29584,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -29313,11 +29617,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -29350,11 +29650,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -29387,11 +29683,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
